--- a/excel/program (이노션).xlsx
+++ b/excel/program (이노션).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junglim\Downloads\topo_real-main\topo_real-main\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E8E49-2498-4B07-9359-4637D2E6C1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA264E-7BBA-4C4F-A200-6F75157BDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:BL2124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1608,7 +1608,7 @@
         <v>0.1</v>
       </c>
       <c r="L2" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M2" s="6">
         <v>0.1</v>

--- a/excel/program (이노션).xlsx
+++ b/excel/program (이노션).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junglim\Downloads\topo_real-main\topo_real-main\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AA264E-7BBA-4C4F-A200-6F75157BDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222D84FB-C1A3-4F7E-AE19-AEFF6CC789C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL2124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="137" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2990,7 +2990,7 @@
         <v>0.5</v>
       </c>
       <c r="M9" s="6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="13">
         <v>0.3</v>
@@ -6142,7 +6142,7 @@
         <v>0.2</v>
       </c>
       <c r="M25" s="1">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="N25" s="13">
         <v>0.1</v>
@@ -6339,7 +6339,7 @@
         <v>0.2</v>
       </c>
       <c r="M26" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N26" s="13">
         <v>0.1</v>
@@ -7521,7 +7521,7 @@
         <v>0.4</v>
       </c>
       <c r="M32" s="1">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N32" s="13">
         <v>0.1</v>
@@ -7718,7 +7718,7 @@
         <v>0.4</v>
       </c>
       <c r="M33" s="1">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N33" s="13">
         <v>0.1</v>
@@ -10279,7 +10279,7 @@
         <v>0.1</v>
       </c>
       <c r="M46" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N46" s="13">
         <v>0.1</v>

--- a/excel/program (이노션).xlsx
+++ b/excel/program (이노션).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junglim\Downloads\topo_real-main\topo_real-main\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222D84FB-C1A3-4F7E-AE19-AEFF6CC789C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C300887-281A-4AAC-B17C-A3EB23EC6C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>space_name</t>
   </si>
@@ -241,6 +242,10 @@
   </si>
   <si>
     <t>dist_facade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_floor</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1355,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL2124"/>
+  <dimension ref="A1:BM2124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="137" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1367,16 +1372,16 @@
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="7.875" customWidth="1"/>
-    <col min="9" max="9" width="7.75" customWidth="1"/>
-    <col min="10" max="13" width="7.25" customWidth="1"/>
-    <col min="14" max="64" width="9" style="10"/>
+    <col min="5" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="11" max="14" width="7.25" customWidth="1"/>
+    <col min="15" max="65" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1393,184 +1398,187 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AV1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BD1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BE1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BF1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BG1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BH1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BI1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BK1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BL1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BL1" s="11" t="s">
+      <c r="BM1" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -1588,63 +1596,63 @@
         <v>5</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F52" si="1">C2*E2</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G52" si="1">C2*E2</f>
         <v>1500</v>
       </c>
-      <c r="G2" s="5">
-        <f>F2/3</f>
+      <c r="H2" s="5">
+        <f>G2/3</f>
         <v>500</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>0.2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>0.9</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>0.9</v>
       </c>
-      <c r="K2" s="6">
-        <v>0.1</v>
-      </c>
       <c r="L2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="6">
         <v>0</v>
       </c>
-      <c r="M2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="13">
-        <v>1</v>
+      <c r="N2" s="6">
+        <v>0.1</v>
       </c>
       <c r="O2" s="13">
+        <v>1</v>
+      </c>
+      <c r="P2" s="13">
         <v>0.9</v>
       </c>
-      <c r="P2" s="13">
-        <v>1</v>
-      </c>
       <c r="Q2" s="13">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="R2" s="13">
         <v>0.7</v>
       </c>
       <c r="S2" s="13">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="T2" s="13">
         <v>0.1</v>
       </c>
       <c r="U2" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V2" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="13">
         <v>0.6</v>
       </c>
       <c r="X2" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Y2" s="13">
         <v>0.1</v>
@@ -1659,13 +1667,13 @@
         <v>0.1</v>
       </c>
       <c r="AC2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AD2" s="13">
         <v>0.7</v>
       </c>
-      <c r="AD2" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AE2" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AF2" s="13">
         <v>0.1</v>
@@ -1677,26 +1685,26 @@
         <v>0.1</v>
       </c>
       <c r="AI2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ2" s="13">
         <v>0.5</v>
       </c>
-      <c r="AJ2" s="13">
+      <c r="AK2" s="13">
         <v>0.8</v>
       </c>
-      <c r="AK2" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AL2" s="13">
         <v>0.1</v>
       </c>
       <c r="AM2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AN2" s="13">
         <v>0.8</v>
       </c>
-      <c r="AN2" s="13">
+      <c r="AO2" s="13">
         <v>0.9</v>
       </c>
-      <c r="AO2" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AP2" s="13">
         <v>0.1</v>
       </c>
@@ -1734,19 +1742,19 @@
         <v>0.1</v>
       </c>
       <c r="BB2" s="13">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="BC2" s="13">
         <v>0.7</v>
       </c>
       <c r="BD2" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="BE2" s="13">
         <v>0.5</v>
       </c>
-      <c r="BE2" s="13">
-        <v>0.6</v>
-      </c>
       <c r="BF2" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BG2" s="13">
         <v>0.1</v>
@@ -1755,7 +1763,7 @@
         <v>0.1</v>
       </c>
       <c r="BI2" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ2" s="13">
         <v>0.3</v>
@@ -1766,8 +1774,11 @@
       <c r="BL2" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM2" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -1785,48 +1796,48 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="G3" s="5">
-        <f>F3/3</f>
+      <c r="H3" s="5">
+        <f>G3/3</f>
         <v>250</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.9</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="9">
         <v>0.8</v>
       </c>
-      <c r="K3" s="9">
+      <c r="L3" s="9">
         <v>0.2</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>0.2</v>
       </c>
-      <c r="M3" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N3" s="13">
+      <c r="N3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="13">
         <v>0.9</v>
       </c>
-      <c r="O3" s="13">
-        <v>1</v>
-      </c>
       <c r="P3" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R3" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="S3" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T3" s="13">
         <v>0.1</v>
@@ -1835,14 +1846,14 @@
         <v>0.1</v>
       </c>
       <c r="V3" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="W3" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="X3" s="13">
         <v>0.5</v>
       </c>
-      <c r="X3" s="13">
-        <v>0.1</v>
-      </c>
       <c r="Y3" s="13">
         <v>0.1</v>
       </c>
@@ -1856,13 +1867,13 @@
         <v>0.1</v>
       </c>
       <c r="AC3" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" s="13">
         <v>0.3</v>
       </c>
       <c r="AE3" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AF3" s="13">
         <v>0.1</v>
@@ -1874,26 +1885,26 @@
         <v>0.1</v>
       </c>
       <c r="AI3" s="13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AJ3" s="13">
         <v>0.5</v>
       </c>
       <c r="AK3" s="13">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AL3" s="13">
         <v>0.1</v>
       </c>
       <c r="AM3" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AN3" s="13">
         <v>0.9</v>
       </c>
-      <c r="AN3" s="13">
+      <c r="AO3" s="13">
         <v>0.7</v>
       </c>
-      <c r="AO3" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AP3" s="13">
         <v>0.1</v>
       </c>
@@ -1931,16 +1942,16 @@
         <v>0.1</v>
       </c>
       <c r="BB3" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BC3" s="13">
         <v>0.7</v>
       </c>
-      <c r="BC3" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BD3" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="BE3" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BF3" s="13">
         <v>0.1</v>
@@ -1952,7 +1963,7 @@
         <v>0.1</v>
       </c>
       <c r="BI3" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ3" s="13">
         <v>0.3</v>
@@ -1963,8 +1974,11 @@
       <c r="BL3" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM3" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1982,61 +1996,61 @@
         <v>4</v>
       </c>
       <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:G52" si="2">F4/3</f>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H52" si="2">G4/3</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.9</v>
       </c>
-      <c r="J4" s="9">
-        <v>0.6</v>
-      </c>
       <c r="K4" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="9">
         <v>0.2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>0.2</v>
       </c>
-      <c r="M4" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N4" s="13">
-        <v>1</v>
+      <c r="N4" s="6">
+        <v>0.1</v>
       </c>
       <c r="O4" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P4" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="R4" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S4" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T4" s="13">
         <v>0.1</v>
       </c>
       <c r="U4" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V4" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="W4" s="13">
         <v>0.5</v>
       </c>
-      <c r="W4" s="13">
-        <v>0.1</v>
-      </c>
       <c r="X4" s="13">
         <v>0.1</v>
       </c>
@@ -2050,13 +2064,13 @@
         <v>0.1</v>
       </c>
       <c r="AB4" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="13">
         <v>0.3</v>
       </c>
       <c r="AD4" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AE4" s="13">
         <v>0.1</v>
@@ -2071,23 +2085,23 @@
         <v>0.1</v>
       </c>
       <c r="AI4" s="13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AJ4" s="13">
         <v>0.5</v>
       </c>
       <c r="AK4" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AL4" s="13">
         <v>0.3</v>
       </c>
       <c r="AM4" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AN4" s="13">
         <v>0.7</v>
       </c>
-      <c r="AN4" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AO4" s="13">
         <v>0.1</v>
       </c>
@@ -2149,7 +2163,7 @@
         <v>0.1</v>
       </c>
       <c r="BI4" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ4" s="13">
         <v>0.3</v>
@@ -2160,8 +2174,11 @@
       <c r="BL4" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM4" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -2179,48 +2196,48 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.8</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="9">
         <v>0.5</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="9">
         <v>0.2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>0.2</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>0.4</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="13">
         <v>0.7</v>
       </c>
-      <c r="O5" s="13">
-        <v>1</v>
-      </c>
       <c r="P5" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R5" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S5" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T5" s="13">
         <v>1</v>
@@ -2229,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W5" s="13">
         <v>0.1</v>
@@ -2247,68 +2264,68 @@
         <v>0.1</v>
       </c>
       <c r="AB5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="13">
         <v>0.7</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AD5" s="13">
         <v>0.4</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AE5" s="13">
         <v>0.7</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AF5" s="13">
         <v>0.8</v>
-      </c>
-      <c r="AF5" s="13">
-        <v>0.7</v>
       </c>
       <c r="AG5" s="13">
         <v>0.7</v>
       </c>
       <c r="AH5" s="13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AI5" s="13">
         <v>0.5</v>
       </c>
       <c r="AJ5" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AK5" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AL5" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AM5" s="13">
         <v>0.5</v>
       </c>
-      <c r="AM5" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AN5" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AO5" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AP5" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AQ5" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR5" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AS5" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AT5" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AU5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AV5" s="13">
         <v>0.9</v>
       </c>
-      <c r="AV5" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AW5" s="13">
         <v>0.3</v>
       </c>
@@ -2316,37 +2333,37 @@
         <v>0.3</v>
       </c>
       <c r="AY5" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AZ5" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BA5" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BB5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BC5" s="13">
         <v>0.7</v>
       </c>
-      <c r="BC5" s="13">
-        <v>0.3</v>
-      </c>
       <c r="BD5" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BE5" s="13">
         <v>0.4</v>
       </c>
-      <c r="BE5" s="13">
-        <v>0.6</v>
-      </c>
       <c r="BF5" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="BG5" s="13">
         <v>0.5</v>
       </c>
-      <c r="BG5" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BH5" s="13">
         <v>0.1</v>
       </c>
       <c r="BI5" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ5" s="13">
         <v>0.3</v>
@@ -2357,8 +2374,11 @@
       <c r="BL5" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM5" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
@@ -2376,45 +2396,45 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.5</v>
-      </c>
       <c r="I6" s="1">
         <v>0.5</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="1">
         <v>0.5</v>
       </c>
-      <c r="K6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.3</v>
+      <c r="K6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.1</v>
       </c>
       <c r="M6" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="6">
         <v>0.4</v>
       </c>
-      <c r="N6" s="13">
+      <c r="O6" s="13">
         <v>0.7</v>
       </c>
-      <c r="O6" s="13">
-        <v>0.3</v>
-      </c>
       <c r="P6" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q6" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R6" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S6" s="13">
         <v>1</v>
@@ -2423,11 +2443,11 @@
         <v>1</v>
       </c>
       <c r="U6" s="13">
+        <v>1</v>
+      </c>
+      <c r="V6" s="13">
         <v>0.5</v>
       </c>
-      <c r="V6" s="13">
-        <v>0.1</v>
-      </c>
       <c r="W6" s="13">
         <v>0.1</v>
       </c>
@@ -2441,121 +2461,124 @@
         <v>0.1</v>
       </c>
       <c r="AA6" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AB6" s="13">
         <v>0.7</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AC6" s="13">
         <v>0.5</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AD6" s="13">
         <v>0.7</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AE6" s="13">
         <v>0.8</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>0.7</v>
       </c>
       <c r="AF6" s="13">
         <v>0.7</v>
       </c>
       <c r="AG6" s="13">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AH6" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AI6" s="13">
         <v>0.5</v>
       </c>
-      <c r="AI6" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AJ6" s="13">
         <v>0.6</v>
       </c>
       <c r="AK6" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AL6" s="13">
         <v>0.5</v>
       </c>
-      <c r="AL6" s="13">
+      <c r="AM6" s="13">
         <v>0.8</v>
       </c>
-      <c r="AM6" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AN6" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AO6" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AP6" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AQ6" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AR6" s="13">
         <v>0.8</v>
       </c>
-      <c r="AR6" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AS6" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AT6" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AU6" s="13">
         <v>0.9</v>
       </c>
-      <c r="AU6" s="13">
+      <c r="AV6" s="13">
         <v>0.8</v>
       </c>
-      <c r="AV6" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AW6" s="13">
         <v>0.3</v>
       </c>
       <c r="AX6" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AY6" s="13">
         <v>0.7</v>
       </c>
-      <c r="AY6" s="13">
+      <c r="AZ6" s="13">
         <v>0.5</v>
       </c>
-      <c r="AZ6" s="13">
-        <v>0.3</v>
-      </c>
       <c r="BA6" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BB6" s="13">
         <v>0.7</v>
       </c>
-      <c r="BB6" s="13">
-        <v>0.3</v>
-      </c>
       <c r="BC6" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BD6" s="13">
         <v>0.4</v>
       </c>
-      <c r="BD6" s="13">
-        <v>0.6</v>
-      </c>
       <c r="BE6" s="13">
         <v>0.6</v>
       </c>
       <c r="BF6" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="BG6" s="13">
         <v>0.2</v>
       </c>
-      <c r="BG6" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BH6" s="13">
         <v>0.1</v>
       </c>
       <c r="BI6" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BJ6" s="13">
         <v>0.8</v>
       </c>
-      <c r="BJ6" s="13">
-        <v>0.3</v>
-      </c>
       <c r="BK6" s="13">
         <v>0.3</v>
       </c>
       <c r="BL6" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM6" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -2573,34 +2596,34 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.2</v>
       </c>
-      <c r="J7" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="K7" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="6">
         <v>0.5</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>0.4</v>
       </c>
-      <c r="N7" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O7" s="13">
         <v>0.1</v>
       </c>
@@ -2608,7 +2631,7 @@
         <v>0.1</v>
       </c>
       <c r="Q7" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R7" s="13">
         <v>1</v>
@@ -2617,13 +2640,13 @@
         <v>1</v>
       </c>
       <c r="T7" s="13">
+        <v>1</v>
+      </c>
+      <c r="U7" s="13">
         <v>0.5</v>
       </c>
-      <c r="U7" s="13">
-        <v>1</v>
-      </c>
       <c r="V7" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W7" s="13">
         <v>0.1</v>
@@ -2635,16 +2658,16 @@
         <v>0.1</v>
       </c>
       <c r="Z7" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AA7" s="13">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AB7" s="13">
         <v>0.5</v>
       </c>
       <c r="AC7" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD7" s="13">
         <v>0.6</v>
@@ -2656,92 +2679,92 @@
         <v>0.6</v>
       </c>
       <c r="AG7" s="13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH7" s="13">
         <v>0.5</v>
       </c>
       <c r="AI7" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AJ7" s="13">
         <v>0.6</v>
       </c>
       <c r="AK7" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AL7" s="13">
         <v>0.8</v>
       </c>
-      <c r="AL7" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AM7" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AN7" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AO7" s="13">
         <v>0.1</v>
       </c>
       <c r="AP7" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ7" s="13">
         <v>0.8</v>
       </c>
-      <c r="AQ7" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AR7" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AS7" s="13">
         <v>0.1</v>
       </c>
       <c r="AT7" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AU7" s="13">
         <v>0.8</v>
       </c>
-      <c r="AU7" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AV7" s="13">
         <v>0.1</v>
       </c>
       <c r="AW7" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AX7" s="13">
         <v>0.7</v>
-      </c>
-      <c r="AX7" s="13">
-        <v>0.5</v>
       </c>
       <c r="AY7" s="13">
         <v>0.5</v>
       </c>
       <c r="AZ7" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BA7" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BB7" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="BC7" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="BD7" s="13">
         <v>0.4</v>
       </c>
-      <c r="BD7" s="13">
-        <v>0.6</v>
-      </c>
       <c r="BE7" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="BF7" s="13">
         <v>0.2</v>
       </c>
-      <c r="BF7" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BG7" s="13">
         <v>0.1</v>
       </c>
       <c r="BH7" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BI7" s="13">
         <v>0.8</v>
       </c>
-      <c r="BI7" s="13">
-        <v>0.3</v>
-      </c>
       <c r="BJ7" s="13">
         <v>0.3</v>
       </c>
@@ -2751,8 +2774,11 @@
       <c r="BL7" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM7" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -2770,34 +2796,34 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H8" s="14">
-        <v>0.1</v>
-      </c>
       <c r="I8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="14">
         <v>0.2</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="15">
         <v>0.5</v>
       </c>
-      <c r="K8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="L8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="6">
         <v>0.9</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>0.4</v>
       </c>
-      <c r="N8" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O8" s="13">
         <v>0.1</v>
       </c>
@@ -2805,22 +2831,22 @@
         <v>0.1</v>
       </c>
       <c r="Q8" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R8" s="13">
         <v>1</v>
       </c>
       <c r="S8" s="13">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13">
         <v>0.5</v>
       </c>
-      <c r="T8" s="13">
-        <v>1</v>
-      </c>
       <c r="U8" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="V8" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="W8" s="13">
         <v>1</v>
@@ -2835,19 +2861,19 @@
         <v>1</v>
       </c>
       <c r="AA8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="13">
         <v>0.5</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AC8" s="13">
         <v>0.4</v>
       </c>
-      <c r="AC8" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AD8" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AE8" s="13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AF8" s="13">
         <v>0.2</v>
@@ -2859,10 +2885,10 @@
         <v>0.2</v>
       </c>
       <c r="AI8" s="13">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ8" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AK8" s="13">
         <v>0.1</v>
@@ -2904,26 +2930,26 @@
         <v>0.1</v>
       </c>
       <c r="AX8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AY8" s="13">
         <v>0.5</v>
       </c>
-      <c r="AY8" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AZ8" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BA8" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="BB8" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BC8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BD8" s="13">
         <v>0.4</v>
       </c>
-      <c r="BD8" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BE8" s="13">
         <v>0.1</v>
       </c>
@@ -2937,7 +2963,7 @@
         <v>0.1</v>
       </c>
       <c r="BI8" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ8" s="13">
         <v>0.3</v>
@@ -2948,8 +2974,11 @@
       <c r="BL8" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM8" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
@@ -2967,54 +2996,54 @@
         <v>3</v>
       </c>
       <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>0.5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>0.2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>0.2</v>
       </c>
-      <c r="K9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.5</v>
+      <c r="L9" s="1">
+        <v>0.1</v>
       </c>
       <c r="M9" s="6">
         <v>0.5</v>
       </c>
-      <c r="N9" s="13">
-        <v>0.3</v>
+      <c r="N9" s="6">
+        <v>0.5</v>
       </c>
       <c r="O9" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P9" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R9" s="13">
+        <v>1</v>
+      </c>
+      <c r="S9" s="13">
         <v>0.5</v>
       </c>
-      <c r="S9" s="13">
-        <v>1</v>
-      </c>
       <c r="T9" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U9" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="V9" s="13">
         <v>1</v>
@@ -3029,19 +3058,19 @@
         <v>1</v>
       </c>
       <c r="Z9" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="13">
         <v>0.6</v>
       </c>
       <c r="AB9" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AC9" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AE9" s="13">
         <v>0.2</v>
@@ -3053,14 +3082,14 @@
         <v>0.2</v>
       </c>
       <c r="AH9" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AI9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ9" s="13">
         <v>0.2</v>
       </c>
-      <c r="AJ9" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AK9" s="13">
         <v>0.1</v>
       </c>
@@ -3071,10 +3100,10 @@
         <v>0.1</v>
       </c>
       <c r="AN9" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AO9" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AP9" s="13">
         <v>0.1</v>
@@ -3134,7 +3163,7 @@
         <v>0.1</v>
       </c>
       <c r="BI9" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ9" s="13">
         <v>0.3</v>
@@ -3145,8 +3174,11 @@
       <c r="BL9" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM9" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -3164,43 +3196,43 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.5</v>
-      </c>
       <c r="I10" s="1">
         <v>0.5</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="9">
         <v>0.2</v>
       </c>
-      <c r="K10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.6</v>
+      <c r="L10" s="1">
+        <v>0.1</v>
       </c>
       <c r="M10" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="6">
         <v>0.5</v>
       </c>
-      <c r="N10" s="13">
-        <v>0.6</v>
-      </c>
       <c r="O10" s="13">
         <v>0.6</v>
       </c>
       <c r="P10" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="Q10" s="13">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="13">
-        <v>0.1</v>
-      </c>
       <c r="R10" s="13">
         <v>0.1</v>
       </c>
@@ -3208,7 +3240,7 @@
         <v>0.1</v>
       </c>
       <c r="T10" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U10" s="13">
         <v>1</v>
@@ -3223,17 +3255,17 @@
         <v>1</v>
       </c>
       <c r="Y10" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="13">
         <v>0.6</v>
       </c>
       <c r="AA10" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AB10" s="13">
         <v>0.8</v>
       </c>
-      <c r="AB10" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AC10" s="13">
         <v>0.1</v>
       </c>
@@ -3250,13 +3282,13 @@
         <v>0.1</v>
       </c>
       <c r="AH10" s="13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AI10" s="13">
         <v>0.2</v>
       </c>
       <c r="AJ10" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK10" s="13">
         <v>0.1</v>
@@ -3265,10 +3297,10 @@
         <v>0.1</v>
       </c>
       <c r="AM10" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AN10" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AO10" s="13">
         <v>0.1</v>
@@ -3331,7 +3363,7 @@
         <v>0.1</v>
       </c>
       <c r="BI10" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ10" s="13">
         <v>0.3</v>
@@ -3342,8 +3374,11 @@
       <c r="BL10" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM10" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -3361,40 +3396,40 @@
         <v>3</v>
       </c>
       <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.2</v>
       </c>
-      <c r="I11" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="1">
         <v>0.2</v>
       </c>
-      <c r="K11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="L11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="6">
         <v>0.8</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>0.5</v>
       </c>
-      <c r="N11" s="13">
-        <v>0.6</v>
-      </c>
       <c r="O11" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="13">
         <v>0.5</v>
       </c>
-      <c r="P11" s="13">
-        <v>0.1</v>
-      </c>
       <c r="Q11" s="13">
         <v>0.1</v>
       </c>
@@ -3405,7 +3440,7 @@
         <v>0.1</v>
       </c>
       <c r="T11" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U11" s="13">
         <v>1</v>
@@ -3417,19 +3452,19 @@
         <v>1</v>
       </c>
       <c r="X11" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z11" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="13">
         <v>0.8</v>
       </c>
       <c r="AB11" s="13">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC11" s="13">
         <v>0.1</v>
@@ -3447,13 +3482,13 @@
         <v>0.1</v>
       </c>
       <c r="AH11" s="13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AI11" s="13">
         <v>0.2</v>
       </c>
       <c r="AJ11" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK11" s="13">
         <v>0.1</v>
@@ -3528,7 +3563,7 @@
         <v>0.1</v>
       </c>
       <c r="BI11" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ11" s="13">
         <v>0.3</v>
@@ -3539,8 +3574,11 @@
       <c r="BL11" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM11" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
@@ -3558,34 +3596,34 @@
         <v>3</v>
       </c>
       <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0.2</v>
       </c>
-      <c r="I12" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="1">
         <v>0.2</v>
       </c>
-      <c r="K12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="L12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="6">
         <v>0.9</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>0.4</v>
       </c>
-      <c r="N12" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O12" s="13">
         <v>0.1</v>
       </c>
@@ -3602,7 +3640,7 @@
         <v>0.1</v>
       </c>
       <c r="T12" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U12" s="13">
         <v>1</v>
@@ -3611,31 +3649,31 @@
         <v>1</v>
       </c>
       <c r="W12" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="X12" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y12" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="13">
         <v>0.8</v>
       </c>
-      <c r="AB12" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AC12" s="13">
         <v>0.1</v>
       </c>
       <c r="AD12" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AE12" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AF12" s="13">
         <v>0.1</v>
@@ -3644,13 +3682,13 @@
         <v>0.1</v>
       </c>
       <c r="AH12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AI12" s="13">
         <v>0.2</v>
       </c>
-      <c r="AI12" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AJ12" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AK12" s="13">
         <v>0.1</v>
@@ -3725,7 +3763,7 @@
         <v>0.1</v>
       </c>
       <c r="BI12" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ12" s="13">
         <v>0.3</v>
@@ -3736,8 +3774,11 @@
       <c r="BL12" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM12" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -3755,34 +3796,34 @@
         <v>3</v>
       </c>
       <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H13" s="1">
-        <v>0.6</v>
-      </c>
       <c r="I13" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="J13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.2</v>
       </c>
-      <c r="K13" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.2</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>0.5</v>
       </c>
-      <c r="N13" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O13" s="13">
         <v>0.1</v>
       </c>
@@ -3799,52 +3840,52 @@
         <v>0.1</v>
       </c>
       <c r="T13" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U13" s="13">
         <v>1</v>
       </c>
       <c r="V13" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W13" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="X13" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="13">
         <v>0.8</v>
       </c>
-      <c r="AA13" s="13">
-        <v>1</v>
-      </c>
       <c r="AB13" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD13" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AE13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AF13" s="13">
         <v>0.2</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AG13" s="13">
         <v>0.4</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AH13" s="13">
         <v>0.5</v>
       </c>
-      <c r="AH13" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AI13" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AJ13" s="13">
         <v>0.1</v>
@@ -3922,7 +3963,7 @@
         <v>0.1</v>
       </c>
       <c r="BI13" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ13" s="13">
         <v>0.3</v>
@@ -3933,8 +3974,11 @@
       <c r="BL13" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM13" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
@@ -3952,34 +3996,34 @@
         <v>3</v>
       </c>
       <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.5</v>
       </c>
-      <c r="I14" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="1">
         <v>0.2</v>
       </c>
-      <c r="K14" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>0.5</v>
       </c>
-      <c r="N14" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O14" s="13">
         <v>0.1</v>
       </c>
@@ -3993,70 +4037,70 @@
         <v>0.1</v>
       </c>
       <c r="S14" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T14" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="U14" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V14" s="13">
         <v>0.6</v>
       </c>
       <c r="W14" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="X14" s="13">
         <v>0.8</v>
       </c>
-      <c r="X14" s="13">
-        <v>1</v>
-      </c>
       <c r="Y14" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="13">
         <v>0.8</v>
       </c>
-      <c r="Z14" s="13">
-        <v>1</v>
-      </c>
       <c r="AA14" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AC14" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AE14" s="13">
         <v>0.2</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="AF14" s="13">
         <v>0.4</v>
       </c>
-      <c r="AF14" s="13">
+      <c r="AG14" s="13">
         <v>0.5</v>
       </c>
-      <c r="AG14" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AH14" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AI14" s="13">
         <v>0.1</v>
       </c>
       <c r="AJ14" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK14" s="13">
         <v>0.5</v>
       </c>
-      <c r="AK14" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AL14" s="13">
         <v>0.1</v>
       </c>
       <c r="AM14" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AN14" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AO14" s="13">
         <v>0.1</v>
@@ -4119,7 +4163,7 @@
         <v>0.1</v>
       </c>
       <c r="BI14" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ14" s="13">
         <v>0.3</v>
@@ -4130,8 +4174,11 @@
       <c r="BL14" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM14" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
@@ -4149,34 +4196,34 @@
         <v>3</v>
       </c>
       <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I15" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.2</v>
       </c>
-      <c r="K15" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="1">
         <v>0.2</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>0.4</v>
       </c>
-      <c r="N15" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O15" s="13">
         <v>0.1</v>
       </c>
@@ -4187,19 +4234,19 @@
         <v>0.1</v>
       </c>
       <c r="R15" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S15" s="13">
         <v>0.7</v>
-      </c>
-      <c r="S15" s="13">
-        <v>0.5</v>
       </c>
       <c r="T15" s="13">
         <v>0.5</v>
       </c>
       <c r="U15" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="V15" s="13">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W15" s="13">
         <v>0.8</v>
@@ -4208,22 +4255,22 @@
         <v>0.8</v>
       </c>
       <c r="Y15" s="13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z15" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AB15" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD15" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="13">
         <v>0.3</v>
@@ -4235,22 +4282,22 @@
         <v>0.3</v>
       </c>
       <c r="AH15" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AI15" s="13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AJ15" s="13">
         <v>0.5</v>
       </c>
       <c r="AK15" s="13">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AL15" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AM15" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AN15" s="13">
         <v>0.1</v>
@@ -4316,7 +4363,7 @@
         <v>0.1</v>
       </c>
       <c r="BI15" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ15" s="13">
         <v>0.3</v>
@@ -4327,8 +4374,11 @@
       <c r="BL15" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM15" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
@@ -4346,55 +4396,55 @@
         <v>3</v>
       </c>
       <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I16" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="1">
         <v>0.2</v>
       </c>
-      <c r="K16" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="1">
         <v>0.2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>0.4</v>
       </c>
-      <c r="N16" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O16" s="13">
         <v>0.1</v>
       </c>
       <c r="P16" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="R16" s="13">
         <v>0.7</v>
-      </c>
-      <c r="R16" s="13">
-        <v>0.5</v>
       </c>
       <c r="S16" s="13">
         <v>0.5</v>
       </c>
       <c r="T16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="U16" s="13">
         <v>0.4</v>
       </c>
-      <c r="U16" s="13">
-        <v>0.1</v>
-      </c>
       <c r="V16" s="13">
         <v>0.1</v>
       </c>
@@ -4408,22 +4458,22 @@
         <v>0.1</v>
       </c>
       <c r="Z16" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AA16" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AC16" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AE16" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="13">
         <v>0.3</v>
@@ -4432,16 +4482,16 @@
         <v>0.3</v>
       </c>
       <c r="AH16" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AI16" s="13">
         <v>1</v>
       </c>
       <c r="AJ16" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AL16" s="13">
         <v>0.1</v>
@@ -4513,7 +4563,7 @@
         <v>0.1</v>
       </c>
       <c r="BI16" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ16" s="13">
         <v>0.3</v>
@@ -4524,8 +4574,11 @@
       <c r="BL16" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM16" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
@@ -4543,57 +4596,57 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I17" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="1">
         <v>0.2</v>
       </c>
-      <c r="K17" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="1">
         <v>0.2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>0.5</v>
       </c>
-      <c r="N17" s="13">
+      <c r="O17" s="13">
         <v>0.7</v>
       </c>
-      <c r="O17" s="13">
-        <v>0.3</v>
-      </c>
       <c r="P17" s="13">
         <v>0.3</v>
       </c>
       <c r="Q17" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="R17" s="13">
         <v>0.4</v>
       </c>
-      <c r="R17" s="13">
+      <c r="S17" s="13">
         <v>0.7</v>
       </c>
-      <c r="S17" s="13">
-        <v>0.6</v>
-      </c>
       <c r="T17" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="U17" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V17" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W17" s="13">
         <v>0.1</v>
@@ -4602,44 +4655,44 @@
         <v>0.1</v>
       </c>
       <c r="Y17" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Z17" s="13">
         <v>0.3</v>
       </c>
       <c r="AA17" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AB17" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AF17" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH17" s="13">
         <v>1</v>
       </c>
       <c r="AI17" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AK17" s="13">
         <v>0.2</v>
       </c>
-      <c r="AK17" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AL17" s="13">
         <v>0.1</v>
       </c>
@@ -4710,7 +4763,7 @@
         <v>0.1</v>
       </c>
       <c r="BI17" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ17" s="13">
         <v>0.3</v>
@@ -4721,8 +4774,11 @@
       <c r="BL17" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM17" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
@@ -4740,103 +4796,103 @@
         <v>3</v>
       </c>
       <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>25.200000000000003</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
-      <c r="H18" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I18" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="1">
         <v>0.2</v>
       </c>
-      <c r="K18" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="1">
         <v>0.2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>0.5</v>
       </c>
-      <c r="N18" s="13">
-        <v>0.3</v>
-      </c>
       <c r="O18" s="13">
         <v>0.3</v>
       </c>
       <c r="P18" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R18" s="13">
         <v>0.7</v>
       </c>
-      <c r="R18" s="13">
+      <c r="S18" s="13">
         <v>0.8</v>
       </c>
-      <c r="S18" s="13">
-        <v>0.6</v>
-      </c>
       <c r="T18" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="U18" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="V18" s="13">
         <v>0.2</v>
       </c>
-      <c r="V18" s="13">
-        <v>0.1</v>
-      </c>
       <c r="W18" s="13">
         <v>0.1</v>
       </c>
       <c r="X18" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Y18" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Z18" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AA18" s="13">
         <v>0.2</v>
       </c>
-      <c r="AA18" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AB18" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AC18" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AE18" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AG18" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AI18" s="13">
         <v>0.4</v>
       </c>
-      <c r="AI18" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AJ18" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AK18" s="13">
         <v>0.2</v>
       </c>
-      <c r="AK18" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AL18" s="13">
         <v>0.1</v>
       </c>
@@ -4907,7 +4963,7 @@
         <v>0.1</v>
       </c>
       <c r="BI18" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ18" s="13">
         <v>0.3</v>
@@ -4918,8 +4974,11 @@
       <c r="BL18" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM18" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>24</v>
       </c>
@@ -4937,34 +4996,34 @@
         <v>3</v>
       </c>
       <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H19" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I19" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="1">
         <v>0.2</v>
       </c>
-      <c r="K19" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M19" s="1">
         <v>0.2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>0.5</v>
       </c>
-      <c r="N19" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O19" s="13">
         <v>0.1</v>
       </c>
@@ -4972,22 +5031,22 @@
         <v>0.1</v>
       </c>
       <c r="Q19" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R19" s="13">
         <v>0.8</v>
       </c>
-      <c r="R19" s="13">
+      <c r="S19" s="13">
         <v>0.7</v>
       </c>
-      <c r="S19" s="13">
-        <v>0.6</v>
-      </c>
       <c r="T19" s="13">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="U19" s="13">
         <v>0.2</v>
       </c>
       <c r="V19" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W19" s="13">
         <v>0.1</v>
@@ -4996,44 +5055,44 @@
         <v>0.1</v>
       </c>
       <c r="Y19" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z19" s="13">
         <v>0.2</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="AA19" s="13">
         <v>0.4</v>
       </c>
-      <c r="AA19" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AB19" s="13">
         <v>0.3</v>
       </c>
       <c r="AC19" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD19" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AF19" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH19" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AJ19" s="13">
         <v>0.4</v>
       </c>
-      <c r="AJ19" s="13">
+      <c r="AK19" s="13">
         <v>0.2</v>
       </c>
-      <c r="AK19" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AL19" s="13">
         <v>0.1</v>
       </c>
@@ -5104,7 +5163,7 @@
         <v>0.1</v>
       </c>
       <c r="BI19" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ19" s="13">
         <v>0.3</v>
@@ -5115,8 +5174,11 @@
       <c r="BL19" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM19" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -5134,34 +5196,34 @@
         <v>3</v>
       </c>
       <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I20" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="1">
         <v>0.2</v>
       </c>
-      <c r="K20" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="1">
         <v>0.2</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>0.5</v>
       </c>
-      <c r="N20" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O20" s="13">
         <v>0.1</v>
       </c>
@@ -5169,22 +5231,22 @@
         <v>0.1</v>
       </c>
       <c r="Q20" s="13">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="R20" s="13">
         <v>0.7</v>
       </c>
       <c r="S20" s="13">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="T20" s="13">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="U20" s="13">
         <v>0.2</v>
       </c>
       <c r="V20" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W20" s="13">
         <v>0.1</v>
@@ -5193,44 +5255,44 @@
         <v>0.1</v>
       </c>
       <c r="Y20" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z20" s="13">
         <v>0.4</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="AA20" s="13">
         <v>0.5</v>
       </c>
-      <c r="AA20" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AB20" s="13">
         <v>0.3</v>
       </c>
       <c r="AC20" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AE20" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AG20" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AI20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="13">
         <v>0.5</v>
       </c>
-      <c r="AJ20" s="13">
+      <c r="AK20" s="13">
         <v>0.2</v>
       </c>
-      <c r="AK20" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AL20" s="13">
         <v>0.1</v>
       </c>
@@ -5301,7 +5363,7 @@
         <v>0.1</v>
       </c>
       <c r="BI20" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ20" s="13">
         <v>0.3</v>
@@ -5312,8 +5374,11 @@
       <c r="BL20" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM20" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>26</v>
       </c>
@@ -5331,34 +5396,34 @@
         <v>3</v>
       </c>
       <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H21" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I21" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="1">
         <v>0.2</v>
       </c>
-      <c r="K21" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="1">
         <v>0.2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>0.5</v>
       </c>
-      <c r="N21" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O21" s="13">
         <v>0.1</v>
       </c>
@@ -5366,22 +5431,22 @@
         <v>0.1</v>
       </c>
       <c r="Q21" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R21" s="13">
         <v>0.7</v>
       </c>
-      <c r="R21" s="13">
-        <v>0.6</v>
-      </c>
       <c r="S21" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="T21" s="13">
         <v>0.5</v>
-      </c>
-      <c r="T21" s="13">
-        <v>0.2</v>
       </c>
       <c r="U21" s="13">
         <v>0.2</v>
       </c>
       <c r="V21" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W21" s="13">
         <v>0.1</v>
@@ -5390,52 +5455,52 @@
         <v>0.1</v>
       </c>
       <c r="Y21" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z21" s="13">
         <v>0.5</v>
       </c>
-      <c r="Z21" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AA21" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AB21" s="13">
         <v>0.3</v>
       </c>
       <c r="AC21" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD21" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AF21" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="13">
         <v>0.5</v>
       </c>
-      <c r="AI21" s="13">
-        <v>1</v>
-      </c>
       <c r="AJ21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="13">
         <v>0.2</v>
       </c>
-      <c r="AK21" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AL21" s="13">
         <v>0.1</v>
       </c>
       <c r="AM21" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AN21" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AO21" s="13">
         <v>0.1</v>
@@ -5498,7 +5563,7 @@
         <v>0.1</v>
       </c>
       <c r="BI21" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ21" s="13">
         <v>0.3</v>
@@ -5509,8 +5574,11 @@
       <c r="BL21" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM21" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>27</v>
       </c>
@@ -5528,34 +5596,34 @@
         <v>3</v>
       </c>
       <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I22" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="1">
         <v>0.2</v>
       </c>
-      <c r="K22" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="1">
         <v>0.2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>0.5</v>
       </c>
-      <c r="N22" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O22" s="13">
         <v>0.1</v>
       </c>
@@ -5563,7 +5631,7 @@
         <v>0.1</v>
       </c>
       <c r="Q22" s="13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R22" s="13">
         <v>0.5</v>
@@ -5572,13 +5640,13 @@
         <v>0.5</v>
       </c>
       <c r="T22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="U22" s="13">
         <v>0.2</v>
       </c>
-      <c r="U22" s="13">
-        <v>0.1</v>
-      </c>
       <c r="V22" s="13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W22" s="13">
         <v>0.2</v>
@@ -5587,49 +5655,49 @@
         <v>0.2</v>
       </c>
       <c r="Y22" s="13">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="Z22" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AA22" s="13">
         <v>0.1</v>
       </c>
       <c r="AB22" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AC22" s="13">
         <v>1</v>
       </c>
       <c r="AD22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="13">
         <v>0.4</v>
       </c>
-      <c r="AE22" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AF22" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AG22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="13">
         <v>0.5</v>
       </c>
-      <c r="AH22" s="13">
-        <v>1</v>
-      </c>
       <c r="AI22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="13">
         <v>0.2</v>
       </c>
-      <c r="AJ22" s="13">
-        <v>1</v>
-      </c>
       <c r="AK22" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AM22" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AN22" s="13">
         <v>0.1</v>
@@ -5695,7 +5763,7 @@
         <v>0.1</v>
       </c>
       <c r="BI22" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ22" s="13">
         <v>0.3</v>
@@ -5706,8 +5774,11 @@
       <c r="BL22" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM22" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>28</v>
       </c>
@@ -5725,33 +5796,33 @@
         <v>3</v>
       </c>
       <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.1</v>
-      </c>
       <c r="I23" s="1">
         <v>0.1</v>
       </c>
       <c r="J23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="1">
         <v>0.2</v>
       </c>
-      <c r="K23" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L23" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M23" s="1">
         <v>0.2</v>
       </c>
-      <c r="N23" s="13">
-        <v>0.5</v>
+      <c r="N23" s="1">
+        <v>0.2</v>
       </c>
       <c r="O23" s="13">
         <v>0.5</v>
@@ -5763,7 +5834,7 @@
         <v>0.5</v>
       </c>
       <c r="R23" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S23" s="13">
         <v>0.6</v>
@@ -5772,7 +5843,7 @@
         <v>0.6</v>
       </c>
       <c r="U23" s="13">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="V23" s="13">
         <v>0.2</v>
@@ -5781,53 +5852,53 @@
         <v>0.2</v>
       </c>
       <c r="X23" s="13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y23" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Z23" s="13">
         <v>0.1</v>
       </c>
       <c r="AA23" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AB23" s="13">
         <v>0.5</v>
       </c>
-      <c r="AB23" s="13">
-        <v>1</v>
-      </c>
       <c r="AC23" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="13">
         <v>0.3</v>
       </c>
       <c r="AE23" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AF23" s="13">
         <v>0.4</v>
       </c>
-      <c r="AF23" s="13">
+      <c r="AG23" s="13">
         <v>0.5</v>
       </c>
-      <c r="AG23" s="13">
-        <v>1</v>
-      </c>
       <c r="AH23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="13">
         <v>0.2</v>
       </c>
-      <c r="AI23" s="13">
-        <v>1</v>
-      </c>
       <c r="AJ23" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AL23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="13">
         <v>0.5</v>
       </c>
-      <c r="AM23" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AN23" s="13">
         <v>0.1</v>
       </c>
@@ -5880,10 +5951,10 @@
         <v>0.1</v>
       </c>
       <c r="BE23" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="BF23" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BG23" s="13">
         <v>0.1</v>
@@ -5892,7 +5963,7 @@
         <v>0.1</v>
       </c>
       <c r="BI23" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ23" s="13">
         <v>0.3</v>
@@ -5903,8 +5974,11 @@
       <c r="BL23" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM23" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
@@ -5922,42 +5996,42 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H24" s="1">
-        <v>0.1</v>
-      </c>
       <c r="I24" s="1">
         <v>0.1</v>
       </c>
       <c r="J24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="1">
         <v>0.2</v>
       </c>
-      <c r="K24" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L24" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M24" s="1">
         <v>0.2</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O24" s="13">
         <v>0.8</v>
-      </c>
-      <c r="O24" s="13">
-        <v>0.5</v>
       </c>
       <c r="P24" s="13">
         <v>0.5</v>
       </c>
       <c r="Q24" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R24" s="13">
         <v>0.6</v>
@@ -5966,7 +6040,7 @@
         <v>0.6</v>
       </c>
       <c r="T24" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="U24" s="13">
         <v>0.1</v>
@@ -5984,16 +6058,16 @@
         <v>0.1</v>
       </c>
       <c r="Z24" s="13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AA24" s="13">
         <v>0.5</v>
       </c>
       <c r="AB24" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AC24" s="13">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD24" s="13">
         <v>0.2</v>
@@ -6008,25 +6082,25 @@
         <v>0.2</v>
       </c>
       <c r="AH24" s="13">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AI24" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AK24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="13">
         <v>0.5</v>
       </c>
-      <c r="AL24" s="13">
-        <v>1</v>
-      </c>
       <c r="AM24" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AO24" s="13">
         <v>0.6</v>
@@ -6041,7 +6115,7 @@
         <v>0.6</v>
       </c>
       <c r="AS24" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AT24" s="13">
         <v>0.1</v>
@@ -6074,10 +6148,10 @@
         <v>0.1</v>
       </c>
       <c r="BD24" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="BE24" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BF24" s="13">
         <v>0.1</v>
@@ -6089,19 +6163,22 @@
         <v>0.1</v>
       </c>
       <c r="BI24" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BJ24" s="13">
         <v>0.5</v>
       </c>
-      <c r="BJ24" s="13">
-        <v>0.3</v>
-      </c>
       <c r="BK24" s="13">
         <v>0.3</v>
       </c>
       <c r="BL24" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM24" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
@@ -6119,52 +6196,52 @@
         <v>3</v>
       </c>
       <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H25" s="1">
-        <v>0.1</v>
-      </c>
       <c r="I25" s="1">
         <v>0.1</v>
       </c>
       <c r="J25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="1">
         <v>0.2</v>
       </c>
-      <c r="K25" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="1">
         <v>0.2</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>0.8</v>
       </c>
-      <c r="N25" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O25" s="13">
         <v>0.1</v>
       </c>
       <c r="P25" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q25" s="13">
         <v>0.3</v>
       </c>
       <c r="R25" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="S25" s="13">
         <v>0.5</v>
       </c>
-      <c r="S25" s="13">
+      <c r="T25" s="13">
         <v>0.8</v>
       </c>
-      <c r="T25" s="13">
-        <v>0.1</v>
-      </c>
       <c r="U25" s="13">
         <v>0.1</v>
       </c>
@@ -6208,22 +6285,22 @@
         <v>0.1</v>
       </c>
       <c r="AI25" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AJ25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="13">
         <v>0.5</v>
       </c>
-      <c r="AK25" s="13">
-        <v>1</v>
-      </c>
       <c r="AL25" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AN25" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO25" s="13">
         <v>0.6</v>
@@ -6238,7 +6315,7 @@
         <v>0.6</v>
       </c>
       <c r="AS25" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AT25" s="13">
         <v>0.1</v>
@@ -6268,14 +6345,14 @@
         <v>0.1</v>
       </c>
       <c r="BC25" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="BD25" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="BE25" s="13">
         <v>0.5</v>
       </c>
-      <c r="BE25" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BF25" s="13">
         <v>0.1</v>
       </c>
@@ -6283,11 +6360,11 @@
         <v>0.1</v>
       </c>
       <c r="BH25" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BI25" s="13">
         <v>0.5</v>
       </c>
-      <c r="BI25" s="13">
-        <v>0.3</v>
-      </c>
       <c r="BJ25" s="13">
         <v>0.3</v>
       </c>
@@ -6297,8 +6374,11 @@
       <c r="BL25" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM25" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>31</v>
       </c>
@@ -6316,49 +6396,49 @@
         <v>3</v>
       </c>
       <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H26" s="1">
-        <v>0.1</v>
-      </c>
       <c r="I26" s="1">
         <v>0.1</v>
       </c>
       <c r="J26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="1">
         <v>0.2</v>
       </c>
-      <c r="K26" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="1">
         <v>0.2</v>
       </c>
-      <c r="M26" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N26" s="13">
-        <v>0.1</v>
+      <c r="N26" s="1">
+        <v>0.3</v>
       </c>
       <c r="O26" s="13">
         <v>0.1</v>
       </c>
       <c r="P26" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q26" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="13">
         <v>0.5</v>
       </c>
-      <c r="R26" s="13">
+      <c r="S26" s="13">
         <v>0.8</v>
       </c>
-      <c r="S26" s="13">
-        <v>0.1</v>
-      </c>
       <c r="T26" s="13">
         <v>0.1</v>
       </c>
@@ -6381,10 +6461,10 @@
         <v>0.1</v>
       </c>
       <c r="AA26" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AB26" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AC26" s="13">
         <v>0.1</v>
@@ -6402,37 +6482,37 @@
         <v>0.1</v>
       </c>
       <c r="AH26" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AI26" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AJ26" s="13">
         <v>0.5</v>
       </c>
-      <c r="AJ26" s="13">
-        <v>1</v>
-      </c>
       <c r="AK26" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AM26" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO26" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AP26" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AQ26" s="13">
         <v>0.6</v>
       </c>
       <c r="AR26" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AS26" s="13">
         <v>0.1</v>
@@ -6465,11 +6545,11 @@
         <v>0.1</v>
       </c>
       <c r="BC26" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BD26" s="13">
         <v>0.5</v>
       </c>
-      <c r="BD26" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BE26" s="13">
         <v>0.1</v>
       </c>
@@ -6483,7 +6563,7 @@
         <v>0.1</v>
       </c>
       <c r="BI26" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ26" s="13">
         <v>0.3</v>
@@ -6494,8 +6574,11 @@
       <c r="BL26" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM26" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -6513,60 +6596,60 @@
         <v>3</v>
       </c>
       <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>0.2</v>
       </c>
-      <c r="I27" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="1">
         <v>0.2</v>
       </c>
-      <c r="K27" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L27" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M27" s="1">
         <v>0.2</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O27" s="13">
         <v>0.8</v>
       </c>
-      <c r="O27" s="13">
+      <c r="P27" s="13">
         <v>0.9</v>
       </c>
-      <c r="P27" s="13">
+      <c r="Q27" s="13">
         <v>0.7</v>
       </c>
-      <c r="Q27" s="13">
-        <v>0.6</v>
-      </c>
       <c r="R27" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="S27" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T27" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U27" s="13">
         <v>0.1</v>
       </c>
       <c r="V27" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="W27" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="X27" s="13">
         <v>0.1</v>
@@ -6575,10 +6658,10 @@
         <v>0.1</v>
       </c>
       <c r="Z27" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AA27" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AB27" s="13">
         <v>0.1</v>
@@ -6596,40 +6679,40 @@
         <v>0.1</v>
       </c>
       <c r="AG27" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AH27" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AI27" s="13">
         <v>0.1</v>
       </c>
       <c r="AJ27" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AK27" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AL27" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AM27" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AN27" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AO27" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AP27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="13">
         <v>0.8</v>
       </c>
-      <c r="AQ27" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AR27" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AS27" s="13">
         <v>0.1</v>
@@ -6680,7 +6763,7 @@
         <v>0.1</v>
       </c>
       <c r="BI27" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ27" s="13">
         <v>0.3</v>
@@ -6691,8 +6774,11 @@
       <c r="BL27" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM27" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>33</v>
       </c>
@@ -6710,57 +6796,57 @@
         <v>3</v>
       </c>
       <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>0.2</v>
       </c>
-      <c r="I28" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="1">
         <v>0.2</v>
       </c>
-      <c r="K28" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L28" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N28" s="1">
         <v>0.2</v>
       </c>
-      <c r="N28" s="13">
+      <c r="O28" s="13">
         <v>0.9</v>
       </c>
-      <c r="O28" s="13">
+      <c r="P28" s="13">
         <v>0.7</v>
       </c>
-      <c r="P28" s="13">
-        <v>0.1</v>
-      </c>
       <c r="Q28" s="13">
         <v>0.1</v>
       </c>
       <c r="R28" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S28" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T28" s="13">
         <v>0.1</v>
       </c>
       <c r="U28" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="V28" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="W28" s="13">
         <v>0.1</v>
@@ -6802,32 +6888,32 @@
         <v>0.1</v>
       </c>
       <c r="AJ28" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AK28" s="13">
         <v>0.6</v>
       </c>
       <c r="AL28" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AM28" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AN28" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AO28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="13">
         <v>0.8</v>
       </c>
-      <c r="AP28" s="13">
-        <v>1</v>
-      </c>
       <c r="AQ28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="13">
         <v>0.5</v>
       </c>
-      <c r="AR28" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AS28" s="13">
         <v>0.1</v>
       </c>
@@ -6877,7 +6963,7 @@
         <v>0.1</v>
       </c>
       <c r="BI28" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ28" s="13">
         <v>0.3</v>
@@ -6888,8 +6974,11 @@
       <c r="BL28" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM28" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>34</v>
       </c>
@@ -6907,34 +6996,34 @@
         <v>3</v>
       </c>
       <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>0.2</v>
       </c>
-      <c r="I29" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="1">
         <v>0.2</v>
       </c>
-      <c r="K29" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L29" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="M29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N29" s="1">
         <v>0.2</v>
       </c>
-      <c r="N29" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O29" s="13">
         <v>0.1</v>
       </c>
@@ -6942,10 +7031,10 @@
         <v>0.1</v>
       </c>
       <c r="Q29" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R29" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S29" s="13">
         <v>0.1</v>
@@ -6999,31 +7088,31 @@
         <v>0.1</v>
       </c>
       <c r="AJ29" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AK29" s="13">
         <v>0.6</v>
       </c>
       <c r="AL29" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AM29" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AN29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="13">
         <v>0.8</v>
       </c>
-      <c r="AO29" s="13">
-        <v>1</v>
-      </c>
       <c r="AP29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="13">
         <v>0.5</v>
       </c>
-      <c r="AQ29" s="13">
-        <v>1</v>
-      </c>
       <c r="AR29" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="13">
         <v>0.1</v>
@@ -7074,7 +7163,7 @@
         <v>0.1</v>
       </c>
       <c r="BI29" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ29" s="13">
         <v>0.3</v>
@@ -7085,8 +7174,11 @@
       <c r="BL29" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM29" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
@@ -7104,34 +7196,34 @@
         <v>3</v>
       </c>
       <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>0.2</v>
       </c>
-      <c r="I30" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="1">
         <v>0.2</v>
       </c>
-      <c r="K30" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="1">
         <v>0.9</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>0.2</v>
       </c>
-      <c r="N30" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O30" s="13">
         <v>0.1</v>
       </c>
@@ -7142,14 +7234,14 @@
         <v>0.1</v>
       </c>
       <c r="R30" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="S30" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="T30" s="13">
         <v>0.8</v>
       </c>
-      <c r="T30" s="13">
-        <v>0.1</v>
-      </c>
       <c r="U30" s="13">
         <v>0.1</v>
       </c>
@@ -7196,7 +7288,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ30" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AK30" s="13">
         <v>0.6</v>
@@ -7205,25 +7297,25 @@
         <v>0.6</v>
       </c>
       <c r="AM30" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AN30" s="13">
         <v>0.8</v>
       </c>
-      <c r="AN30" s="13">
-        <v>1</v>
-      </c>
       <c r="AO30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="13">
         <v>0.5</v>
       </c>
-      <c r="AP30" s="13">
-        <v>1</v>
-      </c>
       <c r="AQ30" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AR30" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AS30" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="13">
         <v>0.1</v>
@@ -7238,11 +7330,11 @@
         <v>0.1</v>
       </c>
       <c r="AX30" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AY30" s="13">
         <v>0.2</v>
       </c>
-      <c r="AY30" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AZ30" s="13">
         <v>0.1</v>
       </c>
@@ -7271,7 +7363,7 @@
         <v>0.1</v>
       </c>
       <c r="BI30" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ30" s="13">
         <v>0.3</v>
@@ -7282,8 +7374,11 @@
       <c r="BL30" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM30" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>36</v>
       </c>
@@ -7301,34 +7396,34 @@
         <v>3</v>
       </c>
       <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>0.2</v>
       </c>
-      <c r="I31" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="1">
         <v>0.2</v>
       </c>
-      <c r="K31" s="1">
-        <v>0.1</v>
-      </c>
       <c r="L31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="1">
         <v>0.9</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>0.2</v>
       </c>
-      <c r="N31" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O31" s="13">
         <v>0.1</v>
       </c>
@@ -7336,16 +7431,16 @@
         <v>0.1</v>
       </c>
       <c r="Q31" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="R31" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="S31" s="13">
         <v>0.8</v>
       </c>
-      <c r="S31" s="13">
-        <v>0.6</v>
-      </c>
       <c r="T31" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="U31" s="13">
         <v>0.1</v>
@@ -7393,7 +7488,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ31" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AK31" s="13">
         <v>0.6</v>
@@ -7405,55 +7500,55 @@
         <v>0.6</v>
       </c>
       <c r="AN31" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AO31" s="13">
         <v>0.5</v>
       </c>
-      <c r="AO31" s="13">
-        <v>1</v>
-      </c>
       <c r="AP31" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AR31" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AT31" s="13">
         <v>1</v>
       </c>
       <c r="AU31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="13">
         <v>0.5</v>
       </c>
-      <c r="AV31" s="13">
+      <c r="AW31" s="13">
         <v>0.4</v>
       </c>
-      <c r="AW31" s="13">
+      <c r="AX31" s="13">
         <v>0.2</v>
       </c>
-      <c r="AX31" s="13">
+      <c r="AY31" s="13">
         <v>0.4</v>
       </c>
-      <c r="AY31" s="13">
+      <c r="AZ31" s="13">
         <v>0.8</v>
       </c>
-      <c r="AZ31" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BA31" s="13">
         <v>0.1</v>
       </c>
       <c r="BB31" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BC31" s="13">
         <v>0.3</v>
       </c>
       <c r="BD31" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BE31" s="13">
         <v>0.1</v>
@@ -7465,7 +7560,7 @@
         <v>0.1</v>
       </c>
       <c r="BH31" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BI31" s="13">
         <v>0.3</v>
@@ -7479,8 +7574,11 @@
       <c r="BL31" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM31" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>37</v>
       </c>
@@ -7498,34 +7596,34 @@
         <v>3</v>
       </c>
       <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H32" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I32" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="1">
         <v>0.2</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>0.9</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>0.4</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>0.8</v>
       </c>
-      <c r="N32" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O32" s="13">
         <v>0.1</v>
       </c>
@@ -7536,10 +7634,10 @@
         <v>0.1</v>
       </c>
       <c r="R32" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="S32" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="T32" s="13">
         <v>0.1</v>
@@ -7590,13 +7688,13 @@
         <v>0.1</v>
       </c>
       <c r="AJ32" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AK32" s="13">
         <v>0.6</v>
       </c>
       <c r="AL32" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AM32" s="13">
         <v>0.1</v>
@@ -7608,13 +7706,13 @@
         <v>0.1</v>
       </c>
       <c r="AP32" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AQ32" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AR32" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AS32" s="13">
         <v>1</v>
@@ -7623,25 +7721,25 @@
         <v>1</v>
       </c>
       <c r="AU32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="13">
         <v>0.5</v>
       </c>
-      <c r="AV32" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AW32" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AX32" s="13">
         <v>0.4</v>
       </c>
-      <c r="AX32" s="13">
+      <c r="AY32" s="13">
         <v>0.8</v>
       </c>
-      <c r="AY32" s="13">
+      <c r="AZ32" s="13">
         <v>0.5</v>
       </c>
-      <c r="AZ32" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BA32" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BB32" s="13">
         <v>0.3</v>
@@ -7650,22 +7748,22 @@
         <v>0.3</v>
       </c>
       <c r="BD32" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BE32" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BF32" s="13">
         <v>0.5</v>
       </c>
-      <c r="BF32" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BG32" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BH32" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BI32" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ32" s="13">
         <v>0.3</v>
@@ -7676,8 +7774,11 @@
       <c r="BL32" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM32" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>38</v>
       </c>
@@ -7695,34 +7796,34 @@
         <v>3</v>
       </c>
       <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="H33" s="1">
-        <v>0.2</v>
-      </c>
       <c r="I33" s="1">
         <v>0.2</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K33" s="9">
         <v>0.5</v>
       </c>
-      <c r="K33" s="9">
+      <c r="L33" s="9">
         <v>0.8</v>
       </c>
-      <c r="L33" s="9">
+      <c r="M33" s="9">
         <v>0.4</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>0.8</v>
       </c>
-      <c r="N33" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O33" s="13">
         <v>0.1</v>
       </c>
@@ -7730,10 +7831,10 @@
         <v>0.1</v>
       </c>
       <c r="Q33" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R33" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S33" s="13">
         <v>0.1</v>
@@ -7808,7 +7909,7 @@
         <v>0.1</v>
       </c>
       <c r="AQ33" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AR33" s="13">
         <v>1</v>
@@ -7817,43 +7918,43 @@
         <v>1</v>
       </c>
       <c r="AT33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="13">
         <v>0.5</v>
       </c>
-      <c r="AU33" s="13">
-        <v>1</v>
-      </c>
       <c r="AV33" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AW33" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AX33" s="13">
         <v>0.5</v>
       </c>
-      <c r="AX33" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AY33" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AZ33" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BA33" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BB33" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="BC33" s="13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BD33" s="13">
         <v>0.5</v>
       </c>
       <c r="BE33" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="BF33" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BG33" s="13">
         <v>0.1</v>
@@ -7862,7 +7963,7 @@
         <v>0.1</v>
       </c>
       <c r="BI33" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ33" s="13">
         <v>0.3</v>
@@ -7873,8 +7974,11 @@
       <c r="BL33" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM33" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>39</v>
       </c>
@@ -7892,32 +7996,32 @@
         <v>3.5</v>
       </c>
       <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <f t="shared" si="2"/>
         <v>116.66666666666667</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>0.8</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.2</v>
       </c>
       <c r="J34" s="1">
         <v>0.2</v>
       </c>
       <c r="K34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L34" s="1">
         <v>0.5</v>
       </c>
-      <c r="L34" s="1">
-        <v>0.1</v>
-      </c>
       <c r="M34" s="1">
         <v>0.1</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="1">
         <v>0.1</v>
       </c>
       <c r="O34" s="13">
@@ -7930,14 +8034,14 @@
         <v>0.1</v>
       </c>
       <c r="R34" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S34" s="13">
         <v>0.9</v>
       </c>
-      <c r="S34" s="13">
+      <c r="T34" s="13">
         <v>0.8</v>
       </c>
-      <c r="T34" s="13">
-        <v>0.1</v>
-      </c>
       <c r="U34" s="13">
         <v>0.1</v>
       </c>
@@ -8005,53 +8109,53 @@
         <v>0.1</v>
       </c>
       <c r="AQ34" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AR34" s="13">
         <v>1</v>
       </c>
       <c r="AS34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="13">
         <v>0.5</v>
       </c>
-      <c r="AT34" s="13">
-        <v>1</v>
-      </c>
       <c r="AU34" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AW34" s="13">
         <v>1</v>
       </c>
       <c r="AX34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="13">
         <v>0.4</v>
       </c>
-      <c r="AY34" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AZ34" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BA34" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="BB34" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="BC34" s="13">
         <v>0.5</v>
       </c>
-      <c r="BC34" s="13">
-        <v>0.3</v>
-      </c>
       <c r="BD34" s="13">
         <v>0.3</v>
       </c>
       <c r="BE34" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BF34" s="13">
         <v>0.8</v>
       </c>
-      <c r="BF34" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BG34" s="13">
         <v>0.1</v>
       </c>
@@ -8059,7 +8163,7 @@
         <v>0.1</v>
       </c>
       <c r="BI34" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ34" s="13">
         <v>0.3</v>
@@ -8070,8 +8174,11 @@
       <c r="BL34" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM34" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>40</v>
       </c>
@@ -8089,32 +8196,32 @@
         <v>3</v>
       </c>
       <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>0.8</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.2</v>
       </c>
       <c r="J35" s="1">
         <v>0.2</v>
       </c>
       <c r="K35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L35" s="1">
         <v>0.9</v>
       </c>
-      <c r="L35" s="1">
-        <v>0.6</v>
-      </c>
       <c r="M35" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N35" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="N35" s="1">
         <v>0.1</v>
       </c>
       <c r="O35" s="13">
@@ -8124,14 +8231,14 @@
         <v>0.1</v>
       </c>
       <c r="Q35" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R35" s="13">
         <v>0.9</v>
       </c>
-      <c r="R35" s="13">
+      <c r="S35" s="13">
         <v>0.8</v>
       </c>
-      <c r="S35" s="13">
-        <v>0.1</v>
-      </c>
       <c r="T35" s="13">
         <v>0.1</v>
       </c>
@@ -8202,19 +8309,19 @@
         <v>0.1</v>
       </c>
       <c r="AQ35" s="13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR35" s="13">
         <v>0.5</v>
       </c>
       <c r="AS35" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT35" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AU35" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AV35" s="13">
         <v>1</v>
@@ -8223,17 +8330,17 @@
         <v>1</v>
       </c>
       <c r="AX35" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AY35" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AZ35" s="13">
         <v>0.9</v>
       </c>
-      <c r="AZ35" s="13">
+      <c r="BA35" s="13">
         <v>0.8</v>
       </c>
-      <c r="BA35" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BB35" s="13">
         <v>0.1</v>
       </c>
@@ -8241,22 +8348,22 @@
         <v>0.1</v>
       </c>
       <c r="BD35" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BE35" s="13">
         <v>0.8</v>
       </c>
-      <c r="BE35" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BF35" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="BG35" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BH35" s="13">
         <v>0.1</v>
       </c>
       <c r="BI35" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ35" s="13">
         <v>0.3</v>
@@ -8267,8 +8374,11 @@
       <c r="BL35" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM35" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>41</v>
       </c>
@@ -8286,16 +8396,16 @@
         <v>3</v>
       </c>
       <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H36" s="1">
-        <v>0.2</v>
-      </c>
       <c r="I36" s="1">
         <v>0.2</v>
       </c>
@@ -8303,15 +8413,15 @@
         <v>0.2</v>
       </c>
       <c r="K36" s="1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="L36" s="1">
         <v>0.9</v>
       </c>
       <c r="M36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N36" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="N36" s="1">
         <v>0.1</v>
       </c>
       <c r="O36" s="13">
@@ -8321,13 +8431,13 @@
         <v>0.1</v>
       </c>
       <c r="Q36" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R36" s="13">
         <v>0.3</v>
       </c>
       <c r="S36" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T36" s="13">
         <v>0.1</v>
@@ -8399,16 +8509,16 @@
         <v>0.1</v>
       </c>
       <c r="AQ36" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR36" s="13">
         <v>0.4</v>
       </c>
-      <c r="AR36" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AS36" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AT36" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AU36" s="13">
         <v>1</v>
@@ -8417,23 +8527,23 @@
         <v>1</v>
       </c>
       <c r="AW36" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AX36" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AY36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="13">
         <v>0.8</v>
       </c>
-      <c r="AZ36" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BA36" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BB36" s="13">
         <v>0.7</v>
       </c>
-      <c r="BB36" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BC36" s="13">
         <v>0.1</v>
       </c>
@@ -8441,10 +8551,10 @@
         <v>0.1</v>
       </c>
       <c r="BE36" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="BF36" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BG36" s="13">
         <v>0.1</v>
@@ -8453,7 +8563,7 @@
         <v>0.1</v>
       </c>
       <c r="BI36" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ36" s="13">
         <v>0.3</v>
@@ -8464,8 +8574,11 @@
       <c r="BL36" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM36" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>42</v>
       </c>
@@ -8483,32 +8596,32 @@
         <v>3</v>
       </c>
       <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>0.5</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.2</v>
       </c>
       <c r="J37" s="1">
         <v>0.2</v>
       </c>
       <c r="K37" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M37" s="1">
         <v>0.5</v>
       </c>
-      <c r="M37" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N37" s="13">
+      <c r="N37" s="1">
         <v>0.1</v>
       </c>
       <c r="O37" s="13">
@@ -8518,17 +8631,17 @@
         <v>0.1</v>
       </c>
       <c r="Q37" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R37" s="13">
         <v>0.3</v>
       </c>
       <c r="S37" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="T37" s="13">
         <v>0.7</v>
       </c>
-      <c r="T37" s="13">
-        <v>0.1</v>
-      </c>
       <c r="U37" s="13">
         <v>0.1</v>
       </c>
@@ -8596,41 +8709,41 @@
         <v>0.1</v>
       </c>
       <c r="AQ37" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR37" s="13">
         <v>0.2</v>
       </c>
-      <c r="AR37" s="13">
+      <c r="AS37" s="13">
         <v>0.4</v>
       </c>
-      <c r="AS37" s="13">
+      <c r="AT37" s="13">
         <v>0.5</v>
       </c>
-      <c r="AT37" s="13">
-        <v>1</v>
-      </c>
       <c r="AU37" s="13">
         <v>1</v>
       </c>
       <c r="AV37" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AW37" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AX37" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AY37" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AZ37" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="13">
         <v>0.7</v>
       </c>
-      <c r="BA37" s="13">
+      <c r="BB37" s="13">
         <v>0.9</v>
       </c>
-      <c r="BB37" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BC37" s="13">
         <v>0.1</v>
       </c>
@@ -8650,7 +8763,7 @@
         <v>0.1</v>
       </c>
       <c r="BI37" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ37" s="13">
         <v>0.3</v>
@@ -8661,8 +8774,11 @@
       <c r="BL37" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM37" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>43</v>
       </c>
@@ -8680,32 +8796,32 @@
         <v>3</v>
       </c>
       <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>0.2</v>
       </c>
-      <c r="I38" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J38" s="1">
         <v>0.1</v>
       </c>
       <c r="K38" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="L38" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M38" s="1">
         <v>0.5</v>
       </c>
-      <c r="M38" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N38" s="13">
+      <c r="N38" s="1">
         <v>0.1</v>
       </c>
       <c r="O38" s="13">
@@ -8715,19 +8831,19 @@
         <v>0.1</v>
       </c>
       <c r="Q38" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R38" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="S38" s="13">
         <v>0.7</v>
-      </c>
-      <c r="S38" s="13">
-        <v>0.5</v>
       </c>
       <c r="T38" s="13">
         <v>0.5</v>
       </c>
       <c r="U38" s="13">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="V38" s="13">
         <v>0.1</v>
@@ -8790,40 +8906,40 @@
         <v>0.1</v>
       </c>
       <c r="AP38" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ38" s="13">
         <v>0.2</v>
       </c>
-      <c r="AQ38" s="13">
+      <c r="AR38" s="13">
         <v>0.4</v>
       </c>
-      <c r="AR38" s="13">
+      <c r="AS38" s="13">
         <v>0.8</v>
       </c>
-      <c r="AS38" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AT38" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AU38" s="13">
         <v>0.4</v>
       </c>
-      <c r="AU38" s="13">
-        <v>0.6</v>
-      </c>
       <c r="AV38" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AW38" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AX38" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AY38" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AZ38" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="BA38" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BB38" s="13">
         <v>0.1</v>
@@ -8847,7 +8963,7 @@
         <v>0.1</v>
       </c>
       <c r="BI38" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ38" s="13">
         <v>0.3</v>
@@ -8858,8 +8974,11 @@
       <c r="BL38" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM38" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>44</v>
       </c>
@@ -8877,32 +8996,32 @@
         <v>3</v>
       </c>
       <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>0.2</v>
       </c>
-      <c r="I39" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J39" s="1">
         <v>0.1</v>
       </c>
       <c r="K39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L39" s="1">
         <v>0.8</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>0.5</v>
       </c>
-      <c r="M39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N39" s="13">
+      <c r="N39" s="1">
         <v>0.1</v>
       </c>
       <c r="O39" s="13">
@@ -8912,19 +9031,19 @@
         <v>0.1</v>
       </c>
       <c r="Q39" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="R39" s="13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S39" s="13">
         <v>0.5</v>
       </c>
       <c r="T39" s="13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="U39" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="V39" s="13">
         <v>0.1</v>
@@ -8990,40 +9109,40 @@
         <v>0.1</v>
       </c>
       <c r="AQ39" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR39" s="13">
         <v>0.8</v>
       </c>
-      <c r="AR39" s="13">
+      <c r="AS39" s="13">
         <v>0.5</v>
       </c>
-      <c r="AS39" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AT39" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AU39" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AV39" s="13">
         <v>0.9</v>
       </c>
-      <c r="AV39" s="13">
+      <c r="AW39" s="13">
         <v>0.8</v>
       </c>
-      <c r="AW39" s="13">
-        <v>1</v>
-      </c>
       <c r="AX39" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AY39" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AZ39" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BB39" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BC39" s="13">
         <v>0.1</v>
@@ -9032,10 +9151,10 @@
         <v>0.1</v>
       </c>
       <c r="BE39" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BF39" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BG39" s="13">
         <v>0.1</v>
@@ -9044,7 +9163,7 @@
         <v>0.1</v>
       </c>
       <c r="BI39" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ39" s="13">
         <v>0.3</v>
@@ -9055,8 +9174,11 @@
       <c r="BL39" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM39" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>45</v>
       </c>
@@ -9074,32 +9196,32 @@
         <v>3</v>
       </c>
       <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>0.4</v>
       </c>
-      <c r="I40" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J40" s="1">
         <v>0.1</v>
       </c>
       <c r="K40" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="L40" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M40" s="1">
         <v>0.5</v>
       </c>
-      <c r="M40" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N40" s="13">
+      <c r="N40" s="1">
         <v>0.1</v>
       </c>
       <c r="O40" s="13">
@@ -9109,16 +9231,16 @@
         <v>0.1</v>
       </c>
       <c r="Q40" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R40" s="13">
         <v>0.3</v>
       </c>
       <c r="S40" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="T40" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="U40" s="13">
         <v>0.1</v>
@@ -9196,43 +9318,43 @@
         <v>0.1</v>
       </c>
       <c r="AT40" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AU40" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AV40" s="13">
         <v>0.8</v>
       </c>
-      <c r="AV40" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AW40" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AX40" s="13">
         <v>0.7</v>
       </c>
-      <c r="AX40" s="13">
-        <v>1</v>
-      </c>
       <c r="AY40" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BA40" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BC40" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BD40" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BE40" s="13">
         <v>0.5</v>
       </c>
-      <c r="BE40" s="13">
-        <v>0.6</v>
-      </c>
       <c r="BF40" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BG40" s="13">
         <v>0.1</v>
@@ -9241,7 +9363,7 @@
         <v>0.1</v>
       </c>
       <c r="BI40" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ40" s="13">
         <v>0.3</v>
@@ -9252,8 +9374,11 @@
       <c r="BL40" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM40" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>46</v>
       </c>
@@ -9271,32 +9396,32 @@
         <v>3</v>
       </c>
       <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="H41" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I41" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J41" s="1">
         <v>0.1</v>
       </c>
       <c r="K41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L41" s="1">
         <v>0.2</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>0.5</v>
       </c>
-      <c r="M41" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N41" s="13">
+      <c r="N41" s="1">
         <v>0.1</v>
       </c>
       <c r="O41" s="13">
@@ -9309,16 +9434,16 @@
         <v>0.1</v>
       </c>
       <c r="R41" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S41" s="13">
         <v>0.7</v>
       </c>
-      <c r="S41" s="13">
-        <v>0.3</v>
-      </c>
       <c r="T41" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="U41" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="V41" s="13">
         <v>0.1</v>
@@ -9387,49 +9512,49 @@
         <v>0.1</v>
       </c>
       <c r="AR41" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AS41" s="13">
         <v>0.3</v>
       </c>
       <c r="AT41" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AU41" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AV41" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AW41" s="13">
         <v>0.7</v>
       </c>
-      <c r="AW41" s="13">
+      <c r="AX41" s="13">
         <v>0.9</v>
       </c>
-      <c r="AX41" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AY41" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AZ41" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BB41" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BC41" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BD41" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="13">
         <v>0.7</v>
       </c>
-      <c r="BE41" s="13">
-        <v>0.6</v>
-      </c>
       <c r="BF41" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BG41" s="13">
         <v>0.1</v>
@@ -9438,7 +9563,7 @@
         <v>0.1</v>
       </c>
       <c r="BI41" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ41" s="13">
         <v>0.3</v>
@@ -9449,8 +9574,11 @@
       <c r="BL41" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM41" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>47</v>
       </c>
@@ -9468,18 +9596,18 @@
         <v>3</v>
       </c>
       <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="G42" s="5">
+      <c r="H42" s="5">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H42" s="1">
-        <v>0.3</v>
-      </c>
       <c r="I42" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J42" s="1">
         <v>0.1</v>
@@ -9488,34 +9616,34 @@
         <v>0.1</v>
       </c>
       <c r="L42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M42" s="1">
         <v>0.2</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <v>0.4</v>
-      </c>
-      <c r="N42" s="13">
-        <v>0.7</v>
       </c>
       <c r="O42" s="13">
         <v>0.7</v>
       </c>
       <c r="P42" s="13">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="Q42" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R42" s="13">
         <v>0.7</v>
       </c>
-      <c r="R42" s="13">
-        <v>0.3</v>
-      </c>
       <c r="S42" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="T42" s="13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="U42" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V42" s="13">
         <v>0.1</v>
@@ -9581,20 +9709,20 @@
         <v>0.1</v>
       </c>
       <c r="AQ42" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AR42" s="13">
         <v>0.3</v>
       </c>
       <c r="AS42" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AT42" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AU42" s="13">
         <v>0.5</v>
       </c>
-      <c r="AU42" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AV42" s="13">
         <v>0.1</v>
       </c>
@@ -9608,25 +9736,25 @@
         <v>0.1</v>
       </c>
       <c r="AZ42" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BA42" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BB42" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BC42" s="13">
+        <v>1</v>
+      </c>
+      <c r="BD42" s="13">
         <v>0.7</v>
       </c>
-      <c r="BD42" s="13">
-        <v>1</v>
-      </c>
       <c r="BE42" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BF42" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BG42" s="13">
         <v>0.1</v>
@@ -9635,7 +9763,7 @@
         <v>0.1</v>
       </c>
       <c r="BI42" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ42" s="13">
         <v>0.3</v>
@@ -9646,8 +9774,11 @@
       <c r="BL42" s="13">
         <v>0.3</v>
       </c>
+      <c r="BM42" s="13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>48</v>
       </c>
@@ -9665,18 +9796,18 @@
         <v>3</v>
       </c>
       <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="H43" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.1</v>
+      <c r="I43" s="14">
+        <v>0.3</v>
       </c>
       <c r="J43" s="1">
         <v>0.1</v>
@@ -9688,22 +9819,22 @@
         <v>0.1</v>
       </c>
       <c r="M43" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N43" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O43" s="13">
         <v>0.7</v>
       </c>
-      <c r="O43" s="13">
-        <v>0.1</v>
-      </c>
       <c r="P43" s="13">
         <v>0.1</v>
       </c>
       <c r="Q43" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R43" s="13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S43" s="13">
         <v>0.4</v>
@@ -9712,7 +9843,7 @@
         <v>0.4</v>
       </c>
       <c r="U43" s="13">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="V43" s="13">
         <v>0.1</v>
@@ -9760,14 +9891,14 @@
         <v>0.1</v>
       </c>
       <c r="AK43" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AL43" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AM43" s="13">
         <v>0.5</v>
       </c>
-      <c r="AM43" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AN43" s="13">
         <v>0.1</v>
       </c>
@@ -9778,19 +9909,19 @@
         <v>0.1</v>
       </c>
       <c r="AQ43" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AR43" s="13">
         <v>0.3</v>
       </c>
       <c r="AS43" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AT43" s="13">
         <v>0.5</v>
       </c>
-      <c r="AT43" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AU43" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AV43" s="13">
         <v>0.1</v>
@@ -9808,31 +9939,31 @@
         <v>0.1</v>
       </c>
       <c r="BA43" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BB43" s="13">
+        <v>1</v>
+      </c>
+      <c r="BC43" s="13">
         <v>0.7</v>
       </c>
-      <c r="BC43" s="13">
-        <v>1</v>
-      </c>
       <c r="BD43" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BE43" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="BF43" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BG43" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="BH43" s="13">
         <v>0.1</v>
       </c>
       <c r="BI43" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ43" s="13">
         <v>0.3</v>
@@ -9841,10 +9972,13 @@
         <v>0.3</v>
       </c>
       <c r="BL43" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BM43" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>49</v>
       </c>
@@ -9862,19 +9996,19 @@
         <v>3</v>
       </c>
       <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H44" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>0.5</v>
       </c>
-      <c r="I44" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J44" s="1">
         <v>0.1</v>
       </c>
@@ -9885,28 +10019,28 @@
         <v>0.1</v>
       </c>
       <c r="M44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N44" s="1">
         <v>0.2</v>
       </c>
-      <c r="N44" s="13">
+      <c r="O44" s="13">
         <v>0.5</v>
       </c>
-      <c r="O44" s="13">
-        <v>0.6</v>
-      </c>
       <c r="P44" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q44" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R44" s="13">
         <v>0.4</v>
       </c>
-      <c r="R44" s="13">
-        <v>0.6</v>
-      </c>
       <c r="S44" s="13">
         <v>0.6</v>
       </c>
       <c r="T44" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="U44" s="13">
         <v>0.1</v>
@@ -9954,14 +10088,14 @@
         <v>0.1</v>
       </c>
       <c r="AJ44" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AK44" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="AL44" s="13">
         <v>0.5</v>
       </c>
-      <c r="AL44" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AM44" s="13">
         <v>0.1</v>
       </c>
@@ -9981,17 +10115,17 @@
         <v>0.1</v>
       </c>
       <c r="AS44" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AT44" s="13">
         <v>0.5</v>
       </c>
-      <c r="AT44" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AU44" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AV44" s="13">
         <v>0.8</v>
       </c>
-      <c r="AV44" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AW44" s="13">
         <v>0.1</v>
       </c>
@@ -10002,46 +10136,49 @@
         <v>0.1</v>
       </c>
       <c r="AZ44" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BA44" s="13">
         <v>0.5</v>
       </c>
-      <c r="BA44" s="13">
+      <c r="BB44" s="13">
         <v>0.7</v>
       </c>
-      <c r="BB44" s="13">
-        <v>1</v>
-      </c>
       <c r="BC44" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BD44" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="BE44" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BF44" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="BG44" s="13">
+        <v>1</v>
+      </c>
+      <c r="BH44" s="13">
         <v>0.9</v>
       </c>
-      <c r="BH44" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BI44" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ44" s="13">
         <v>0.3</v>
       </c>
       <c r="BK44" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BL44" s="13">
         <v>0.1</v>
       </c>
+      <c r="BM44" s="13">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>50</v>
       </c>
@@ -10059,22 +10196,22 @@
         <v>3</v>
       </c>
       <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H45" s="5">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H45" s="1">
-        <v>0.6</v>
-      </c>
       <c r="I45" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J45" s="1">
         <v>0.2</v>
       </c>
-      <c r="J45" s="1">
-        <v>0.1</v>
-      </c>
       <c r="K45" s="1">
         <v>0.1</v>
       </c>
@@ -10082,29 +10219,29 @@
         <v>0.1</v>
       </c>
       <c r="M45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N45" s="1">
         <v>0.2</v>
       </c>
-      <c r="N45" s="13">
-        <v>0.6</v>
-      </c>
       <c r="O45" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="P45" s="13">
         <v>0.1</v>
       </c>
       <c r="Q45" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="R45" s="13">
         <v>0.6</v>
       </c>
       <c r="S45" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="T45" s="13">
         <v>0.2</v>
       </c>
-      <c r="T45" s="13">
-        <v>0.1</v>
-      </c>
       <c r="U45" s="13">
         <v>0.1</v>
       </c>
@@ -10148,10 +10285,10 @@
         <v>0.1</v>
       </c>
       <c r="AI45" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AJ45" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AK45" s="13">
         <v>0.1</v>
@@ -10175,31 +10312,31 @@
         <v>0.1</v>
       </c>
       <c r="AR45" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AS45" s="13">
         <v>0.5</v>
       </c>
-      <c r="AS45" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AT45" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AU45" s="13">
         <v>0.8</v>
       </c>
-      <c r="AU45" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AV45" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AW45" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AX45" s="13">
         <v>0.1</v>
       </c>
       <c r="AY45" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AZ45" s="13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="BA45" s="13">
         <v>0.6</v>
@@ -10208,37 +10345,40 @@
         <v>0.6</v>
       </c>
       <c r="BC45" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="BD45" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BE45" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="BF45" s="13">
+        <v>1</v>
+      </c>
+      <c r="BG45" s="13">
         <v>0.9</v>
       </c>
-      <c r="BG45" s="13">
-        <v>1</v>
-      </c>
       <c r="BH45" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BI45" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="BJ45" s="13">
         <v>0.3</v>
       </c>
       <c r="BK45" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BL45" s="13">
         <v>0.1</v>
       </c>
+      <c r="BM45" s="13">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>51</v>
       </c>
@@ -10256,22 +10396,22 @@
         <v>3</v>
       </c>
       <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G46" s="5">
+      <c r="H46" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
       <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
         <v>0.2</v>
       </c>
-      <c r="J46" s="1">
-        <v>0.1</v>
-      </c>
       <c r="K46" s="1">
         <v>0.1</v>
       </c>
@@ -10279,11 +10419,11 @@
         <v>0.1</v>
       </c>
       <c r="M46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N46" s="1">
         <v>0.4</v>
       </c>
-      <c r="N46" s="13">
-        <v>0.1</v>
-      </c>
       <c r="O46" s="13">
         <v>0.1</v>
       </c>
@@ -10291,14 +10431,14 @@
         <v>0.1</v>
       </c>
       <c r="Q46" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R46" s="13">
         <v>0.5</v>
       </c>
-      <c r="R46" s="13">
+      <c r="S46" s="13">
         <v>0.2</v>
       </c>
-      <c r="S46" s="13">
-        <v>0.1</v>
-      </c>
       <c r="T46" s="13">
         <v>0.1</v>
       </c>
@@ -10381,10 +10521,10 @@
         <v>0.1</v>
       </c>
       <c r="AU46" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AV46" s="13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AW46" s="13">
         <v>0.1</v>
@@ -10405,37 +10545,40 @@
         <v>0.1</v>
       </c>
       <c r="BC46" s="13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="BD46" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="BE46" s="13">
+        <v>1</v>
+      </c>
+      <c r="BF46" s="13">
         <v>0.9</v>
       </c>
-      <c r="BF46" s="13">
-        <v>1</v>
-      </c>
       <c r="BG46" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BH46" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BI46" s="13">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="BJ46" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BK46" s="13">
         <v>0.8</v>
       </c>
-      <c r="BK46" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BL46" s="13">
         <v>0.1</v>
       </c>
+      <c r="BM46" s="13">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>52</v>
       </c>
@@ -10453,32 +10596,32 @@
         <v>3</v>
       </c>
       <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G47" s="5">
+      <c r="H47" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>0.2</v>
       </c>
-      <c r="I47" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J47" s="9">
-        <v>1</v>
+      <c r="J47" s="1">
+        <v>0.3</v>
       </c>
       <c r="K47" s="9">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9">
         <v>0.5</v>
       </c>
-      <c r="L47" s="9">
-        <v>0.6</v>
-      </c>
       <c r="M47" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N47" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="N47" s="9">
         <v>0.1</v>
       </c>
       <c r="O47" s="13">
@@ -10569,10 +10712,10 @@
         <v>0.1</v>
       </c>
       <c r="AR47" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AS47" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AT47" s="13">
         <v>0.1</v>
@@ -10605,34 +10748,37 @@
         <v>0.1</v>
       </c>
       <c r="BD47" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BE47" s="13">
         <v>0.9</v>
       </c>
-      <c r="BE47" s="13">
-        <v>1</v>
-      </c>
       <c r="BF47" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BG47" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BH47" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BI47" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BJ47" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BK47" s="13">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="BL47" s="13">
         <v>0.8</v>
       </c>
+      <c r="BM47" s="13">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>53</v>
       </c>
@@ -10650,32 +10796,32 @@
         <v>3</v>
       </c>
       <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G48" s="5">
+      <c r="H48" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H48" s="1">
-        <v>0.2</v>
-      </c>
       <c r="I48" s="1">
         <v>0.2</v>
       </c>
       <c r="J48" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K48" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L48" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M48" s="9">
         <v>0.5</v>
       </c>
-      <c r="M48" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N48" s="13">
+      <c r="N48" s="9">
         <v>0.1</v>
       </c>
       <c r="O48" s="13">
@@ -10691,11 +10837,11 @@
         <v>0.1</v>
       </c>
       <c r="S48" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T48" s="13">
         <v>0.8</v>
       </c>
-      <c r="T48" s="13">
-        <v>0.1</v>
-      </c>
       <c r="U48" s="13">
         <v>0.1</v>
       </c>
@@ -10745,11 +10891,11 @@
         <v>0.1</v>
       </c>
       <c r="AK48" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AL48" s="13">
         <v>0.5</v>
       </c>
-      <c r="AL48" s="13">
-        <v>0.1</v>
-      </c>
       <c r="AM48" s="13">
         <v>0.1</v>
       </c>
@@ -10763,10 +10909,10 @@
         <v>0.1</v>
       </c>
       <c r="AQ48" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AR48" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AS48" s="13">
         <v>0.1</v>
@@ -10808,28 +10954,31 @@
         <v>0.1</v>
       </c>
       <c r="BF48" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BG48" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BH48" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BI48" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BJ48" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BK48" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BL48" s="13">
         <v>0.8</v>
       </c>
+      <c r="BM48" s="13">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>54</v>
       </c>
@@ -10847,33 +10996,33 @@
         <v>3</v>
       </c>
       <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G49" s="5">
+      <c r="H49" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H49" s="1">
-        <v>0.2</v>
-      </c>
       <c r="I49" s="1">
         <v>0.2</v>
       </c>
       <c r="J49" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L49" s="1">
         <v>0.8</v>
       </c>
-      <c r="L49" s="9">
+      <c r="M49" s="9">
         <v>0.5</v>
       </c>
-      <c r="M49" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N49" s="13">
-        <v>0.3</v>
+      <c r="N49" s="9">
+        <v>0.1</v>
       </c>
       <c r="O49" s="13">
         <v>0.3</v>
@@ -10885,11 +11034,11 @@
         <v>0.3</v>
       </c>
       <c r="R49" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="S49" s="13">
         <v>0.8</v>
       </c>
-      <c r="S49" s="13">
-        <v>0.3</v>
-      </c>
       <c r="T49" s="13">
         <v>0.3</v>
       </c>
@@ -10939,11 +11088,11 @@
         <v>0.3</v>
       </c>
       <c r="AJ49" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AK49" s="13">
         <v>0.5</v>
       </c>
-      <c r="AK49" s="13">
-        <v>0.3</v>
-      </c>
       <c r="AL49" s="13">
         <v>0.3</v>
       </c>
@@ -11008,25 +11157,28 @@
         <v>0.3</v>
       </c>
       <c r="BG49" s="13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BH49" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BI49" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BJ49" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BK49" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BL49" s="13">
         <v>1</v>
       </c>
+      <c r="BM49" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>55</v>
       </c>
@@ -11044,33 +11196,33 @@
         <v>3</v>
       </c>
       <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H50" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H50" s="14">
+      <c r="I50" s="14">
         <v>0.2</v>
       </c>
-      <c r="I50" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J50" s="1">
         <v>0.1</v>
       </c>
       <c r="K50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L50" s="1">
         <v>0.8</v>
       </c>
-      <c r="L50" s="9">
+      <c r="M50" s="9">
         <v>0.5</v>
       </c>
-      <c r="M50" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="N50" s="13">
-        <v>0.3</v>
+      <c r="N50" s="9">
+        <v>0.1</v>
       </c>
       <c r="O50" s="13">
         <v>0.3</v>
@@ -11202,19 +11354,19 @@
         <v>0.3</v>
       </c>
       <c r="BF50" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BG50" s="13">
         <v>0.8</v>
       </c>
-      <c r="BG50" s="13">
-        <v>0.1</v>
-      </c>
       <c r="BH50" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BI50" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="BJ50" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BK50" s="13">
         <v>1</v>
@@ -11222,8 +11374,11 @@
       <c r="BL50" s="13">
         <v>1</v>
       </c>
+      <c r="BM50" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>56</v>
       </c>
@@ -11241,33 +11396,33 @@
         <v>3</v>
       </c>
       <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G51" s="5">
+      <c r="H51" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>0.2</v>
       </c>
-      <c r="I51" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J51" s="1">
         <v>0.1</v>
       </c>
       <c r="K51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L51" s="1">
         <v>0.5</v>
       </c>
-      <c r="L51" s="9">
-        <v>0.1</v>
-      </c>
       <c r="M51" s="9">
         <v>0.1</v>
       </c>
-      <c r="N51" s="13">
-        <v>0.3</v>
+      <c r="N51" s="9">
+        <v>0.1</v>
       </c>
       <c r="O51" s="13">
         <v>0.3</v>
@@ -11393,7 +11548,7 @@
         <v>0.3</v>
       </c>
       <c r="BD51" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BE51" s="13">
         <v>0.1</v>
@@ -11402,13 +11557,13 @@
         <v>0.1</v>
       </c>
       <c r="BG51" s="13">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="BH51" s="13">
         <v>0.8</v>
       </c>
       <c r="BI51" s="13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BJ51" s="13">
         <v>1</v>
@@ -11419,8 +11574,11 @@
       <c r="BL51" s="13">
         <v>1</v>
       </c>
+      <c r="BM51" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>57</v>
       </c>
@@ -11438,33 +11596,33 @@
         <v>3</v>
       </c>
       <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>0.2</v>
       </c>
-      <c r="I52" s="1">
-        <v>0.1</v>
-      </c>
       <c r="J52" s="1">
         <v>0.1</v>
       </c>
       <c r="K52" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L52" s="1">
         <v>0.8</v>
       </c>
-      <c r="L52" s="9">
-        <v>0.1</v>
-      </c>
       <c r="M52" s="9">
         <v>0.1</v>
       </c>
-      <c r="N52" s="13">
-        <v>0.3</v>
+      <c r="N52" s="9">
+        <v>0.1</v>
       </c>
       <c r="O52" s="13">
         <v>0.3</v>
@@ -11587,7 +11745,7 @@
         <v>0.3</v>
       </c>
       <c r="BC52" s="13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BD52" s="13">
         <v>0.1</v>
@@ -11599,13 +11757,13 @@
         <v>0.1</v>
       </c>
       <c r="BG52" s="13">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="BH52" s="13">
         <v>0.8</v>
       </c>
       <c r="BI52" s="13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BJ52" s="13">
         <v>1</v>
@@ -11616,10 +11774,12 @@
       <c r="BL52" s="13">
         <v>1</v>
       </c>
+      <c r="BM52" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="G53" s="17"/>
-      <c r="N53"/>
+    <row r="53" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="H53" s="17"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
@@ -11670,9 +11830,9 @@
       <c r="BJ53"/>
       <c r="BK53"/>
       <c r="BL53"/>
+      <c r="BM53"/>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N54"/>
+    <row r="54" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
@@ -11723,9 +11883,9 @@
       <c r="BJ54"/>
       <c r="BK54"/>
       <c r="BL54"/>
+      <c r="BM54"/>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N55"/>
+    <row r="55" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
@@ -11776,9 +11936,9 @@
       <c r="BJ55"/>
       <c r="BK55"/>
       <c r="BL55"/>
+      <c r="BM55"/>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N56"/>
+    <row r="56" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
@@ -11829,9 +11989,9 @@
       <c r="BJ56"/>
       <c r="BK56"/>
       <c r="BL56"/>
+      <c r="BM56"/>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N57"/>
+    <row r="57" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
@@ -11882,9 +12042,9 @@
       <c r="BJ57"/>
       <c r="BK57"/>
       <c r="BL57"/>
+      <c r="BM57"/>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N58"/>
+    <row r="58" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
@@ -11935,9 +12095,9 @@
       <c r="BJ58"/>
       <c r="BK58"/>
       <c r="BL58"/>
+      <c r="BM58"/>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N59"/>
+    <row r="59" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
@@ -11988,9 +12148,9 @@
       <c r="BJ59"/>
       <c r="BK59"/>
       <c r="BL59"/>
+      <c r="BM59"/>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N60"/>
+    <row r="60" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
@@ -12041,9 +12201,9 @@
       <c r="BJ60"/>
       <c r="BK60"/>
       <c r="BL60"/>
+      <c r="BM60"/>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N61"/>
+    <row r="61" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
@@ -12094,9 +12254,9 @@
       <c r="BJ61"/>
       <c r="BK61"/>
       <c r="BL61"/>
+      <c r="BM61"/>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N62"/>
+    <row r="62" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
@@ -12147,9 +12307,9 @@
       <c r="BJ62"/>
       <c r="BK62"/>
       <c r="BL62"/>
+      <c r="BM62"/>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N63"/>
+    <row r="63" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
@@ -12200,9 +12360,9 @@
       <c r="BJ63"/>
       <c r="BK63"/>
       <c r="BL63"/>
+      <c r="BM63"/>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="N64"/>
+    <row r="64" spans="1:65" x14ac:dyDescent="0.3">
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
@@ -12253,6 +12413,7 @@
       <c r="BJ64"/>
       <c r="BK64"/>
       <c r="BL64"/>
+      <c r="BM64"/>
     </row>
     <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -14316,7 +14477,7 @@
     <row r="2124" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="H2:M8 M3:M12 K7:L31">
+  <conditionalFormatting sqref="I2:N8 N3:N12 L7:M31">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -14326,7 +14487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:M52">
+  <conditionalFormatting sqref="I2:N52">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -14336,7 +14497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:L21 H9:M52">
+  <conditionalFormatting sqref="L6:M21 I9:N52">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -14346,7 +14507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:R7">
+  <conditionalFormatting sqref="O2:S7">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -14356,7 +14517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:BL52">
+  <conditionalFormatting sqref="O2:BM52">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -14366,7 +14527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18:P22">
+  <conditionalFormatting sqref="Q18:Q22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
